--- a/SonarLysaFX/src/resources/Tests.xlsx
+++ b/SonarLysaFX/src/resources/Tests.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Suivi Qualité" sheetId="38" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Suivi Qualité'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Suivi Qualité'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Edition</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>String2</t>
+  </si>
+  <si>
+    <t>Projet RTC</t>
+  </si>
+  <si>
+    <t>Action</t>
   </si>
 </sst>
 </file>
@@ -1090,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,17 +1113,19 @@
     <col min="7" max="7" width="21" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="84" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="84" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1146,37 +1154,43 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1199,7 +1213,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1">
+  <autoFilter ref="A1:Q1">
     <sortState ref="A2:O37">
       <sortCondition ref="I1:I37"/>
     </sortState>
